--- a/VB05_QUAN_LY_KHO/TEMP_IMPORT.xlsx
+++ b/VB05_QUAN_LY_KHO/TEMP_IMPORT.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IMPORT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +18,149 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+  <si>
+    <t>RANGE_IMPORT</t>
+  </si>
+  <si>
+    <t>SO_PHIEU</t>
+  </si>
+  <si>
+    <t>NGAY_TREN_PHIEU</t>
+  </si>
+  <si>
+    <t>SO_PHIEU_DE_NGHI</t>
+  </si>
+  <si>
+    <t>SO_PHIEU_KE_HOACH_SX</t>
+  </si>
+  <si>
+    <t>MA_DOI_TUONG</t>
+  </si>
+  <si>
+    <t>TEN_DOI_TUONG</t>
+  </si>
+  <si>
+    <t>STT_DONG</t>
+  </si>
+  <si>
+    <t>MA_THANH_PHAM</t>
+  </si>
+  <si>
+    <t>TEN_THANH_PHAM</t>
+  </si>
+  <si>
+    <t>DVT</t>
+  </si>
+  <si>
+    <t>SO_LUONG</t>
+  </si>
+  <si>
+    <t>DON_GIA</t>
+  </si>
+  <si>
+    <t>THANH_TIEN</t>
+  </si>
+  <si>
+    <t>GHI_CHU</t>
+  </si>
+  <si>
+    <t>ID_NHAN_VIEN</t>
+  </si>
+  <si>
+    <t>NGAY_TAO_PHIEU</t>
+  </si>
+  <si>
+    <t>XOA_SUA</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>X01</t>
+  </si>
+  <si>
+    <t>Xưởng 1</t>
+  </si>
+  <si>
+    <t>HH-19A-004</t>
+  </si>
+  <si>
+    <t>Nối bọc IPC 95 - 95, vỏ cách điện dày 1 - 3 mm, 6 - 95 / 25 - 95, 2 bu lông M8 nhựa</t>
+  </si>
+  <si>
+    <t>DNNK-0012</t>
+  </si>
+  <si>
+    <t>DNNK-0013</t>
+  </si>
+  <si>
+    <t>DNNK-0014</t>
+  </si>
+  <si>
+    <t>DNNK-0015</t>
+  </si>
+  <si>
+    <t>HH-45A-008</t>
+  </si>
+  <si>
+    <t>Ống nối ON-ACSR 240mm2 (ống nhôm dài 680mm, ống sắt dài 210mm)</t>
+  </si>
+  <si>
+    <t>HH-31A-010</t>
+  </si>
+  <si>
+    <t>Cosse ép Cu-Al 70mm2-N-TA dài 72mm chiều dài ép dây 38mm</t>
+  </si>
+  <si>
+    <t>HH-18A-013</t>
+  </si>
+  <si>
+    <t>Kẹp ngừng ABC 4 x (50-95)mm2</t>
+  </si>
+  <si>
+    <t>KHSX-0201</t>
+  </si>
+  <si>
+    <t>HH-44A-006</t>
+  </si>
+  <si>
+    <t>Ống nối OL-AL 150mm2 dài 190mm</t>
+  </si>
+  <si>
+    <t>HH-38B-002</t>
+  </si>
+  <si>
+    <t>Kẹp quai 4/0 loại ty, quai nhôm phi 10</t>
+  </si>
+  <si>
+    <t>KHSX-2184</t>
+  </si>
+  <si>
+    <t>KHSX-0135</t>
+  </si>
+  <si>
+    <t>KHSX-01DP</t>
+  </si>
+  <si>
+    <t>HH-20B-003</t>
+  </si>
+  <si>
+    <t>Bar tiếp địa nhôm 16 - 25 loại dài</t>
+  </si>
+  <si>
+    <t>NTP-6365</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +168,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +196,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -331,12 +501,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>2400</v>
+      </c>
+      <c r="L4">
+        <v>37293.868852459018</v>
+      </c>
+      <c r="M4">
+        <v>39693.868852459018</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>21366.469377423524</v>
+      </c>
+      <c r="M5">
+        <v>21501.469377423524</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>733</v>
+      </c>
+      <c r="L6">
+        <v>108691.61447963801</v>
+      </c>
+      <c r="M6">
+        <v>109424.61447963801</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>96680.231814343802</v>
+      </c>
+      <c r="M7">
+        <v>96730.231814343802</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="2">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>23720</v>
+      </c>
+      <c r="M8">
+        <v>23787</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="2">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>2400</v>
+      </c>
+      <c r="L9">
+        <v>30403.256470588232</v>
+      </c>
+      <c r="M9">
+        <v>32803.256470588232</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="2">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>567</v>
+      </c>
+      <c r="L10">
+        <v>18145.373025362322</v>
+      </c>
+      <c r="M10">
+        <v>18712.373025362322</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="2">
+        <v>45465</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VB05_QUAN_LY_KHO/TEMP_IMPORT.xlsx
+++ b/VB05_QUAN_LY_KHO/TEMP_IMPORT.xlsx
@@ -153,7 +153,7 @@
     <t>Bar tiếp địa nhôm 16 - 25 loại dài</t>
   </si>
   <si>
-    <t>NTP-6365</t>
+    <t>NTP-6374</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
